--- a/Lab1_NuclearMagneticResonance/dataSpreadsheets.xlsx
+++ b/Lab1_NuclearMagneticResonance/dataSpreadsheets.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Programming Stuffs\GitHub Saved\phy327Labs\Lab1_NuclearMagneticResonance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51EDE390-4C9E-4479-B82B-17A167D6D90A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427ACE1F-7BFB-4714-9FA6-485DD4EC65B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{9A383C69-FF3A-4AD6-B826-3952C1112033}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{9A383C69-FF3A-4AD6-B826-3952C1112033}"/>
   </bookViews>
   <sheets>
     <sheet name="Gyro calcs and T data Sep 17" sheetId="1" r:id="rId1"/>
-    <sheet name="Measured Sep 20" sheetId="2" r:id="rId2"/>
-    <sheet name="Measured Sep 24" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary Sep 27" sheetId="4" r:id="rId4"/>
-    <sheet name="Measured Sep 27" sheetId="5" r:id="rId5"/>
+    <sheet name="Sample Prep Sep 17" sheetId="7" r:id="rId2"/>
+    <sheet name="Measured Sep 20" sheetId="2" r:id="rId3"/>
+    <sheet name="Measured Sep 24" sheetId="3" r:id="rId4"/>
+    <sheet name="Summary Sep 27" sheetId="4" r:id="rId5"/>
+    <sheet name="Measured Sep 27" sheetId="5" r:id="rId6"/>
+    <sheet name="Measured Oct 1" sheetId="6" r:id="rId7"/>
+    <sheet name="Magnetic Moment and other" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="77">
   <si>
     <t>vo (MHz)</t>
   </si>
@@ -56,9 +59,6 @@
   </si>
   <si>
     <t>Measure T1</t>
-  </si>
-  <si>
-    <t>Experimental</t>
   </si>
   <si>
     <t>PRACTICE</t>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>Sample 4</t>
-  </si>
-  <si>
-    <t>Measure T2*</t>
-  </si>
-  <si>
-    <t>t (us)</t>
   </si>
   <si>
     <t>Sample</t>
@@ -206,6 +200,75 @@
   </si>
   <si>
     <t>**Note that the above data has a mysterious offset from where it should be.</t>
+  </si>
+  <si>
+    <t>Setting it to 8 and 2</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>permeability</t>
+  </si>
+  <si>
+    <t>The magnetic moment</t>
+  </si>
+  <si>
+    <t>The magnetic moment squared</t>
+  </si>
+  <si>
+    <t>All SI units unless otherwise noted</t>
+  </si>
+  <si>
+    <t>Slope (1/ms per g/mL):</t>
+  </si>
+  <si>
+    <t>Slope (1/ms per F++/m3)</t>
+  </si>
+  <si>
+    <t>Slope (1/s per Fe++/m3)</t>
+  </si>
+  <si>
+    <t>Lab Handout Q1</t>
+  </si>
+  <si>
+    <t>Delta T (s)</t>
+  </si>
+  <si>
+    <t>Brf</t>
+  </si>
+  <si>
+    <t>Lab Handout Q2</t>
+  </si>
+  <si>
+    <t>Measure T2*: Data from Sep 24</t>
+  </si>
+  <si>
+    <t>Resulting T2*</t>
+  </si>
+  <si>
+    <t>delta B</t>
   </si>
 </sst>
 </file>
@@ -591,6 +654,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Ln(I) vs t</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> for Sample 5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1307,7 +1400,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Ln(1)</a:t>
+              <a:t>Ln(I) vs t for Sample 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5269,8 +5362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B70D20-4353-4293-8922-1C0ED8C24D99}">
   <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScale="78" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5284,13 +5377,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -5303,36 +5396,26 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>42.85</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>2*PI()*A2*10^6/C2</f>
-        <v>269234490.41264528</v>
-      </c>
       <c r="M2" t="s">
         <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AE2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AH2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
@@ -5356,35 +5439,38 @@
         <f>E3*SQRT((D3/C3)^2+(B3/A3)^2)</f>
         <v>6781766.4740889156</v>
       </c>
+      <c r="H3" s="1">
+        <v>42979</v>
+      </c>
       <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" t="s">
         <v>8</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" t="s">
         <v>9</v>
       </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" t="s">
-        <v>10</v>
-      </c>
       <c r="W3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="s">
         <v>32</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>35</v>
       </c>
       <c r="AC3">
         <v>820</v>
@@ -5408,9 +5494,6 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
       <c r="M4">
         <v>850</v>
       </c>
@@ -5483,8 +5566,11 @@
         <f>E5*SQRT((D5/C5)^2+(B5/A5)^2)</f>
         <v>32955310.679713257</v>
       </c>
+      <c r="H5" s="1">
+        <v>44075</v>
+      </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M5">
         <v>720</v>
@@ -5815,48 +5901,48 @@
         <v>0.05</v>
       </c>
       <c r="AB11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="O12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="O13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="O15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="T15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="W15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="L16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O16">
         <v>510</v>
@@ -6024,12 +6110,12 @@
     </row>
     <row r="22" spans="13:23" x14ac:dyDescent="0.35">
       <c r="M22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="23:23" x14ac:dyDescent="0.35">
@@ -6043,10 +6129,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3176AB05-2E7C-479B-B172-C6DC7A7684C4}">
+  <dimension ref="I1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="9:16" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1">
+        <v>2.5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="9:16" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <v>0.01</v>
+      </c>
+      <c r="N2">
+        <v>1E-4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="9:16" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="9:16" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <f>$P$1</f>
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <f>$P$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="M4">
+        <f>$N$1/K4</f>
+        <v>9.9989999999999996E-2</v>
+      </c>
+      <c r="N4">
+        <f>M4*SQRT(($N$2/$N$1)^2+(L4/K4)^2)</f>
+        <v>1.0048880584423321E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="9:16" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <f>SQRT($P$2^2+$P$2^2)</f>
+        <v>1.4142135623730951E-2</v>
+      </c>
+      <c r="M5">
+        <f>2.5*M4/K5</f>
+        <v>4.9994999999999998E-2</v>
+      </c>
+      <c r="N5">
+        <f>M5*SQRT((L5/K5)^2+($L$2/$L$1)^2+(N4/M4)^2)</f>
+        <v>2.5002500000000002E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="9:16" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <f>SQRT($P$2^2+$P$2^2)</f>
+        <v>1.4142135623730951E-2</v>
+      </c>
+      <c r="M6">
+        <f>2.5*M5/K6</f>
+        <v>2.4997499999999999E-2</v>
+      </c>
+      <c r="N6">
+        <f>M6*SQRT((L6/K6)^2+($L$2/$L$1)^2+(N5/M5)^2)</f>
+        <v>1.7500035801749092E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="9:16" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <f>SQRT($P$2^2+$P$2^2)</f>
+        <v>1.4142135623730951E-2</v>
+      </c>
+      <c r="M7">
+        <f>2.5*M6/K7</f>
+        <v>1.2498749999999999E-2</v>
+      </c>
+      <c r="N7">
+        <f>M7*SQRT((L7/K7)^2+($L$2/$L$1)^2+(N6/M6)^2)</f>
+        <v>1.0679668236449341E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="9:16" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f>SQRT($P$2^2+$P$2^2)</f>
+        <v>1.4142135623730951E-2</v>
+      </c>
+      <c r="M8">
+        <f>2.5*M7/K8</f>
+        <v>6.2493749999999997E-3</v>
+      </c>
+      <c r="N8">
+        <f>M8*SQRT((L8/K8)^2+($L$2/$L$1)^2+(N7/M7)^2)</f>
+        <v>6.1552378917395422E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="9:16" x14ac:dyDescent="0.35">
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="9:16" x14ac:dyDescent="0.35">
+      <c r="I11">
+        <v>0.19992000000000001</v>
+      </c>
+      <c r="J11">
+        <v>4.1215534158858119E-4</v>
+      </c>
+      <c r="K11">
+        <v>1.0327164573694647</v>
+      </c>
+      <c r="L11">
+        <v>1.9026418538779795E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="9:16" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <v>9.9960000000000007E-2</v>
+      </c>
+      <c r="J12">
+        <v>5.3129656953532093E-4</v>
+      </c>
+      <c r="K12">
+        <v>0.48355899419729204</v>
+      </c>
+      <c r="L12">
+        <v>1.4731245954753093E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="9:16" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <v>4.9980000000000004E-2</v>
+      </c>
+      <c r="J13">
+        <v>3.6127693089927569E-4</v>
+      </c>
+      <c r="K13">
+        <v>0.20829427815617904</v>
+      </c>
+      <c r="L13">
+        <v>5.17601020309362E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="9:16" x14ac:dyDescent="0.35">
+      <c r="I14">
+        <v>2.4990000000000002E-2</v>
+      </c>
+      <c r="J14">
+        <v>2.1821608006744142E-4</v>
+      </c>
+      <c r="K14">
+        <v>8.7827156156683656E-2</v>
+      </c>
+      <c r="L14">
+        <v>3.0160212592010641E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B708CC5-AD3C-4D44-8225-D5AA6C6EB5B5}">
   <dimension ref="B1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -6062,42 +6353,42 @@
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>0.53</v>
@@ -6118,7 +6409,7 @@
         <v>0.01</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M3">
         <v>1100</v>
@@ -6499,19 +6790,19 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
@@ -6532,7 +6823,7 @@
       </c>
       <c r="I21" s="3"/>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.35">
@@ -6612,27 +6903,27 @@
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.35">
@@ -6833,1544 +7124,6 @@
       </c>
       <c r="I40">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B76A14-4B51-43F4-89A8-E24B71AF5230}">
-  <dimension ref="C1:Y62"/>
-  <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3">
-        <v>0.27</v>
-      </c>
-      <c r="F3">
-        <v>0.01</v>
-      </c>
-      <c r="G3">
-        <v>490</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3">
-        <v>860</v>
-      </c>
-      <c r="O3">
-        <v>50</v>
-      </c>
-      <c r="P3">
-        <v>0.7</v>
-      </c>
-      <c r="Q3">
-        <v>0.01</v>
-      </c>
-      <c r="R3">
-        <v>60</v>
-      </c>
-      <c r="S3">
-        <v>20</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>1240</v>
-      </c>
-      <c r="Y3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="E4">
-        <v>0.41</v>
-      </c>
-      <c r="F4">
-        <v>0.01</v>
-      </c>
-      <c r="G4">
-        <v>380</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-      <c r="P4">
-        <v>0.74</v>
-      </c>
-      <c r="Q4">
-        <v>0.01</v>
-      </c>
-      <c r="R4">
-        <v>70</v>
-      </c>
-      <c r="S4">
-        <v>20</v>
-      </c>
-      <c r="V4">
-        <v>36</v>
-      </c>
-      <c r="X4">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="E5">
-        <v>0.33</v>
-      </c>
-      <c r="F5">
-        <v>0.01</v>
-      </c>
-      <c r="G5">
-        <v>440</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-      <c r="P5">
-        <v>0.79</v>
-      </c>
-      <c r="Q5">
-        <v>0.01</v>
-      </c>
-      <c r="R5">
-        <v>90</v>
-      </c>
-      <c r="S5">
-        <v>20</v>
-      </c>
-      <c r="V5">
-        <v>68</v>
-      </c>
-      <c r="X5">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="E6">
-        <v>0.45</v>
-      </c>
-      <c r="F6">
-        <v>0.01</v>
-      </c>
-      <c r="G6">
-        <v>370</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-      <c r="P6">
-        <v>0.91</v>
-      </c>
-      <c r="Q6">
-        <v>0.01</v>
-      </c>
-      <c r="R6">
-        <v>160</v>
-      </c>
-      <c r="S6">
-        <v>20</v>
-      </c>
-      <c r="V6">
-        <v>58</v>
-      </c>
-      <c r="X6">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="E7">
-        <v>0.6</v>
-      </c>
-      <c r="F7">
-        <v>0.01</v>
-      </c>
-      <c r="G7">
-        <v>310</v>
-      </c>
-      <c r="H7">
-        <v>50</v>
-      </c>
-      <c r="P7">
-        <v>0.93</v>
-      </c>
-      <c r="Q7">
-        <v>0.01</v>
-      </c>
-      <c r="R7">
-        <v>170</v>
-      </c>
-      <c r="S7">
-        <v>20</v>
-      </c>
-      <c r="V7">
-        <v>74</v>
-      </c>
-      <c r="X7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="E8">
-        <v>0.68</v>
-      </c>
-      <c r="F8">
-        <v>0.01</v>
-      </c>
-      <c r="G8">
-        <v>260</v>
-      </c>
-      <c r="H8">
-        <v>50</v>
-      </c>
-      <c r="P8">
-        <v>0.98</v>
-      </c>
-      <c r="Q8">
-        <v>0.01</v>
-      </c>
-      <c r="R8">
-        <v>200</v>
-      </c>
-      <c r="S8">
-        <v>50</v>
-      </c>
-      <c r="V8">
-        <v>96</v>
-      </c>
-      <c r="X8">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="E9">
-        <v>0.78</v>
-      </c>
-      <c r="F9">
-        <v>0.01</v>
-      </c>
-      <c r="G9">
-        <v>240</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-      <c r="P9">
-        <v>1.25</v>
-      </c>
-      <c r="Q9">
-        <v>0.01</v>
-      </c>
-      <c r="R9">
-        <v>350</v>
-      </c>
-      <c r="S9">
-        <v>50</v>
-      </c>
-      <c r="V9">
-        <v>142</v>
-      </c>
-      <c r="X9">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="E10">
-        <v>0.92</v>
-      </c>
-      <c r="F10">
-        <v>0.01</v>
-      </c>
-      <c r="G10">
-        <v>180</v>
-      </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
-      <c r="P10">
-        <v>1.07</v>
-      </c>
-      <c r="Q10">
-        <v>0.01</v>
-      </c>
-      <c r="R10">
-        <v>270</v>
-      </c>
-      <c r="S10">
-        <v>50</v>
-      </c>
-      <c r="V10">
-        <v>172</v>
-      </c>
-      <c r="X10">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="E11">
-        <v>1.03</v>
-      </c>
-      <c r="F11">
-        <v>0.01</v>
-      </c>
-      <c r="G11">
-        <v>130</v>
-      </c>
-      <c r="H11">
-        <v>30</v>
-      </c>
-      <c r="P11">
-        <v>1.75</v>
-      </c>
-      <c r="Q11">
-        <v>0.01</v>
-      </c>
-      <c r="R11">
-        <v>550</v>
-      </c>
-      <c r="S11">
-        <v>50</v>
-      </c>
-      <c r="V11">
-        <v>232</v>
-      </c>
-      <c r="X11">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="E12">
-        <v>1.34</v>
-      </c>
-      <c r="F12">
-        <v>0.01</v>
-      </c>
-      <c r="G12">
-        <v>70</v>
-      </c>
-      <c r="H12">
-        <v>30</v>
-      </c>
-      <c r="P12">
-        <v>2.4</v>
-      </c>
-      <c r="Q12">
-        <v>0.01</v>
-      </c>
-      <c r="R12">
-        <v>690</v>
-      </c>
-      <c r="S12">
-        <v>50</v>
-      </c>
-      <c r="V12">
-        <v>256</v>
-      </c>
-      <c r="X12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="E13">
-        <v>0.7</v>
-      </c>
-      <c r="F13">
-        <v>0.01</v>
-      </c>
-      <c r="G13">
-        <v>250</v>
-      </c>
-      <c r="H13">
-        <v>50</v>
-      </c>
-      <c r="P13">
-        <v>3.16</v>
-      </c>
-      <c r="Q13">
-        <v>0.01</v>
-      </c>
-      <c r="R13">
-        <v>770</v>
-      </c>
-      <c r="S13">
-        <v>50</v>
-      </c>
-      <c r="V13">
-        <v>340</v>
-      </c>
-      <c r="X13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="E14">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F14">
-        <v>0.01</v>
-      </c>
-      <c r="G14">
-        <v>320</v>
-      </c>
-      <c r="H14">
-        <v>50</v>
-      </c>
-      <c r="P14">
-        <v>4.01</v>
-      </c>
-      <c r="Q14">
-        <v>0.01</v>
-      </c>
-      <c r="R14">
-        <v>810</v>
-      </c>
-      <c r="S14">
-        <v>50</v>
-      </c>
-      <c r="V14">
-        <v>510</v>
-      </c>
-      <c r="X14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.35">
-      <c r="E15">
-        <v>0.47</v>
-      </c>
-      <c r="F15">
-        <v>0.01</v>
-      </c>
-      <c r="G15">
-        <v>390</v>
-      </c>
-      <c r="H15">
-        <v>50</v>
-      </c>
-      <c r="P15">
-        <v>1.43</v>
-      </c>
-      <c r="Q15">
-        <v>0.01</v>
-      </c>
-      <c r="R15">
-        <v>400</v>
-      </c>
-      <c r="S15">
-        <v>50</v>
-      </c>
-      <c r="V15">
-        <v>730</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="L19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" t="s">
-        <v>48</v>
-      </c>
-      <c r="O19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R19" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20">
-        <v>930</v>
-      </c>
-      <c r="O20">
-        <v>50</v>
-      </c>
-      <c r="P20">
-        <v>1.81</v>
-      </c>
-      <c r="Q20">
-        <v>0.01</v>
-      </c>
-      <c r="R20">
-        <v>160</v>
-      </c>
-      <c r="S20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21">
-        <v>0.33</v>
-      </c>
-      <c r="F21">
-        <v>0.01</v>
-      </c>
-      <c r="G21">
-        <v>630</v>
-      </c>
-      <c r="H21">
-        <v>50</v>
-      </c>
-      <c r="P21">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="Q21">
-        <v>0.01</v>
-      </c>
-      <c r="R21">
-        <v>300</v>
-      </c>
-      <c r="S21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E22">
-        <v>0.46</v>
-      </c>
-      <c r="F22">
-        <v>0.01</v>
-      </c>
-      <c r="G22">
-        <v>570</v>
-      </c>
-      <c r="H22">
-        <v>50</v>
-      </c>
-      <c r="P22">
-        <v>2.56</v>
-      </c>
-      <c r="Q22">
-        <v>0.01</v>
-      </c>
-      <c r="R22">
-        <v>420</v>
-      </c>
-      <c r="S22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E23">
-        <v>0.6</v>
-      </c>
-      <c r="F23">
-        <v>0.01</v>
-      </c>
-      <c r="G23">
-        <v>520</v>
-      </c>
-      <c r="H23">
-        <v>50</v>
-      </c>
-      <c r="P23">
-        <v>3.18</v>
-      </c>
-      <c r="Q23">
-        <v>0.01</v>
-      </c>
-      <c r="R23">
-        <v>520</v>
-      </c>
-      <c r="S23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E24">
-        <v>0.8</v>
-      </c>
-      <c r="F24">
-        <v>0.01</v>
-      </c>
-      <c r="G24">
-        <v>430</v>
-      </c>
-      <c r="H24">
-        <v>50</v>
-      </c>
-      <c r="P24">
-        <v>3.62</v>
-      </c>
-      <c r="Q24">
-        <v>0.01</v>
-      </c>
-      <c r="R24">
-        <v>600</v>
-      </c>
-      <c r="S24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E25">
-        <v>1.01</v>
-      </c>
-      <c r="F25">
-        <v>0.01</v>
-      </c>
-      <c r="G25">
-        <v>380</v>
-      </c>
-      <c r="H25">
-        <v>50</v>
-      </c>
-      <c r="P25">
-        <v>4.42</v>
-      </c>
-      <c r="Q25">
-        <v>0.01</v>
-      </c>
-      <c r="R25">
-        <v>680</v>
-      </c>
-      <c r="S25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E26">
-        <v>1.26</v>
-      </c>
-      <c r="F26">
-        <v>0.01</v>
-      </c>
-      <c r="G26">
-        <v>320</v>
-      </c>
-      <c r="H26">
-        <v>50</v>
-      </c>
-      <c r="P26">
-        <v>5.28</v>
-      </c>
-      <c r="Q26">
-        <v>0.01</v>
-      </c>
-      <c r="R26">
-        <v>770</v>
-      </c>
-      <c r="S26">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E27">
-        <v>1.5</v>
-      </c>
-      <c r="F27">
-        <v>0.01</v>
-      </c>
-      <c r="G27">
-        <v>240</v>
-      </c>
-      <c r="H27">
-        <v>50</v>
-      </c>
-      <c r="P27">
-        <v>6.05</v>
-      </c>
-      <c r="Q27">
-        <v>0.01</v>
-      </c>
-      <c r="R27">
-        <v>870</v>
-      </c>
-      <c r="S27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E28">
-        <v>1.71</v>
-      </c>
-      <c r="F28">
-        <v>0.01</v>
-      </c>
-      <c r="G28">
-        <v>230</v>
-      </c>
-      <c r="H28">
-        <v>50</v>
-      </c>
-      <c r="P28">
-        <v>7.18</v>
-      </c>
-      <c r="Q28">
-        <v>0.01</v>
-      </c>
-      <c r="R28">
-        <v>900</v>
-      </c>
-      <c r="S28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E29">
-        <v>1.91</v>
-      </c>
-      <c r="F29">
-        <v>0.01</v>
-      </c>
-      <c r="G29">
-        <v>190</v>
-      </c>
-      <c r="H29">
-        <v>30</v>
-      </c>
-      <c r="P29">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="Q29">
-        <v>0.01</v>
-      </c>
-      <c r="R29">
-        <v>750</v>
-      </c>
-      <c r="S29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E30">
-        <v>3.05</v>
-      </c>
-      <c r="F30">
-        <v>0.01</v>
-      </c>
-      <c r="G30">
-        <v>80</v>
-      </c>
-      <c r="H30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E31">
-        <v>2.36</v>
-      </c>
-      <c r="F31">
-        <v>0.01</v>
-      </c>
-      <c r="G31">
-        <v>150</v>
-      </c>
-      <c r="H31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D32" s="2"/>
-      <c r="E32">
-        <v>670</v>
-      </c>
-      <c r="F32">
-        <v>0.01</v>
-      </c>
-      <c r="G32">
-        <v>480</v>
-      </c>
-      <c r="H32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" t="s">
-        <v>34</v>
-      </c>
-      <c r="L34" t="s">
-        <v>18</v>
-      </c>
-      <c r="N34" t="s">
-        <v>48</v>
-      </c>
-      <c r="O34" t="s">
-        <v>34</v>
-      </c>
-      <c r="P34" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>34</v>
-      </c>
-      <c r="R34" t="s">
-        <v>9</v>
-      </c>
-      <c r="S34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D35" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" t="s">
-        <v>47</v>
-      </c>
-      <c r="N35">
-        <v>1080</v>
-      </c>
-      <c r="O35">
-        <v>50</v>
-      </c>
-      <c r="P35">
-        <v>3.64</v>
-      </c>
-      <c r="Q35">
-        <v>0.02</v>
-      </c>
-      <c r="R35">
-        <v>90</v>
-      </c>
-      <c r="S35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E36">
-        <v>0.24</v>
-      </c>
-      <c r="F36">
-        <v>0.01</v>
-      </c>
-      <c r="G36">
-        <v>780</v>
-      </c>
-      <c r="H36">
-        <v>50</v>
-      </c>
-      <c r="P36">
-        <v>3.96</v>
-      </c>
-      <c r="Q36">
-        <v>0.02</v>
-      </c>
-      <c r="R36">
-        <v>130</v>
-      </c>
-      <c r="S36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E37">
-        <v>0.36</v>
-      </c>
-      <c r="F37">
-        <v>0.01</v>
-      </c>
-      <c r="G37">
-        <v>710</v>
-      </c>
-      <c r="H37">
-        <v>50</v>
-      </c>
-      <c r="P37">
-        <v>4.58</v>
-      </c>
-      <c r="Q37">
-        <v>0.02</v>
-      </c>
-      <c r="R37">
-        <v>220</v>
-      </c>
-      <c r="S37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E38">
-        <v>0.61</v>
-      </c>
-      <c r="F38">
-        <v>0.01</v>
-      </c>
-      <c r="G38">
-        <v>660</v>
-      </c>
-      <c r="H38">
-        <v>50</v>
-      </c>
-      <c r="P38">
-        <v>5.34</v>
-      </c>
-      <c r="Q38">
-        <v>0.02</v>
-      </c>
-      <c r="R38">
-        <v>320</v>
-      </c>
-      <c r="S38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E39">
-        <v>0.84</v>
-      </c>
-      <c r="F39">
-        <v>0.01</v>
-      </c>
-      <c r="G39">
-        <v>580</v>
-      </c>
-      <c r="H39">
-        <v>50</v>
-      </c>
-      <c r="P39">
-        <v>5.94</v>
-      </c>
-      <c r="Q39">
-        <v>0.02</v>
-      </c>
-      <c r="R39">
-        <v>380</v>
-      </c>
-      <c r="S39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E40">
-        <v>1.19</v>
-      </c>
-      <c r="F40">
-        <v>0.01</v>
-      </c>
-      <c r="G40">
-        <v>550</v>
-      </c>
-      <c r="H40">
-        <v>50</v>
-      </c>
-      <c r="P40">
-        <v>6.46</v>
-      </c>
-      <c r="Q40">
-        <v>0.02</v>
-      </c>
-      <c r="R40">
-        <v>440</v>
-      </c>
-      <c r="S40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E41">
-        <v>1.56</v>
-      </c>
-      <c r="F41">
-        <v>0.01</v>
-      </c>
-      <c r="G41">
-        <v>450</v>
-      </c>
-      <c r="H41">
-        <v>50</v>
-      </c>
-      <c r="P41">
-        <v>8.1</v>
-      </c>
-      <c r="Q41">
-        <v>0.02</v>
-      </c>
-      <c r="R41">
-        <v>600</v>
-      </c>
-      <c r="S41">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E42">
-        <v>1.8</v>
-      </c>
-      <c r="F42">
-        <v>0.02</v>
-      </c>
-      <c r="G42">
-        <v>440</v>
-      </c>
-      <c r="H42">
-        <v>50</v>
-      </c>
-      <c r="P42">
-        <v>8.98</v>
-      </c>
-      <c r="Q42">
-        <v>0.02</v>
-      </c>
-      <c r="R42">
-        <v>650</v>
-      </c>
-      <c r="S42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E43">
-        <v>2.8</v>
-      </c>
-      <c r="F43">
-        <v>0.02</v>
-      </c>
-      <c r="G43">
-        <v>320</v>
-      </c>
-      <c r="H43">
-        <v>50</v>
-      </c>
-      <c r="P43">
-        <v>10.4</v>
-      </c>
-      <c r="Q43">
-        <v>0.02</v>
-      </c>
-      <c r="R43">
-        <v>740</v>
-      </c>
-      <c r="S43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E44">
-        <v>3.3</v>
-      </c>
-      <c r="F44">
-        <v>0.02</v>
-      </c>
-      <c r="G44">
-        <v>260</v>
-      </c>
-      <c r="H44">
-        <v>50</v>
-      </c>
-      <c r="P44">
-        <v>11.4</v>
-      </c>
-      <c r="Q44">
-        <v>0.04</v>
-      </c>
-      <c r="R44">
-        <v>800</v>
-      </c>
-      <c r="S44">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E45">
-        <v>4.16</v>
-      </c>
-      <c r="F45">
-        <v>0.02</v>
-      </c>
-      <c r="G45">
-        <v>180</v>
-      </c>
-      <c r="H45">
-        <v>30</v>
-      </c>
-      <c r="P45">
-        <v>14.1</v>
-      </c>
-      <c r="Q45">
-        <v>0.04</v>
-      </c>
-      <c r="R45">
-        <v>880</v>
-      </c>
-      <c r="S45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E46">
-        <v>6.72</v>
-      </c>
-      <c r="F46">
-        <v>0.02</v>
-      </c>
-      <c r="G46">
-        <v>70</v>
-      </c>
-      <c r="H46">
-        <v>30</v>
-      </c>
-      <c r="P46">
-        <v>22.2</v>
-      </c>
-      <c r="Q46">
-        <v>0.04</v>
-      </c>
-      <c r="R46">
-        <v>1000</v>
-      </c>
-      <c r="S46">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E47">
-        <v>3.98</v>
-      </c>
-      <c r="F47">
-        <v>0.02</v>
-      </c>
-      <c r="G47">
-        <v>230</v>
-      </c>
-      <c r="H47">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" t="s">
-        <v>34</v>
-      </c>
-      <c r="L50" t="s">
-        <v>19</v>
-      </c>
-      <c r="N50" t="s">
-        <v>48</v>
-      </c>
-      <c r="O50" t="s">
-        <v>34</v>
-      </c>
-      <c r="P50" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>34</v>
-      </c>
-      <c r="R50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51">
-        <v>0.88</v>
-      </c>
-      <c r="F51">
-        <v>0.02</v>
-      </c>
-      <c r="G51">
-        <v>710</v>
-      </c>
-      <c r="H51">
-        <v>50</v>
-      </c>
-      <c r="M51" t="s">
-        <v>46</v>
-      </c>
-      <c r="N51">
-        <v>1200</v>
-      </c>
-      <c r="O51">
-        <v>100</v>
-      </c>
-      <c r="P51">
-        <v>9.32</v>
-      </c>
-      <c r="Q51">
-        <v>0.04</v>
-      </c>
-      <c r="R51">
-        <v>150</v>
-      </c>
-      <c r="S51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E52">
-        <v>1.24</v>
-      </c>
-      <c r="F52">
-        <v>0.02</v>
-      </c>
-      <c r="G52">
-        <v>680</v>
-      </c>
-      <c r="H52">
-        <v>50</v>
-      </c>
-      <c r="P52">
-        <v>10.7</v>
-      </c>
-      <c r="Q52">
-        <v>0.04</v>
-      </c>
-      <c r="R52">
-        <v>240</v>
-      </c>
-      <c r="S52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E53">
-        <v>1.52</v>
-      </c>
-      <c r="F53">
-        <v>0.02</v>
-      </c>
-      <c r="G53">
-        <v>650</v>
-      </c>
-      <c r="H53">
-        <v>50</v>
-      </c>
-      <c r="P53">
-        <v>16.8</v>
-      </c>
-      <c r="Q53">
-        <v>0.1</v>
-      </c>
-      <c r="R53">
-        <v>580</v>
-      </c>
-      <c r="S53">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E54">
-        <v>2.08</v>
-      </c>
-      <c r="F54">
-        <v>0.02</v>
-      </c>
-      <c r="G54">
-        <v>600</v>
-      </c>
-      <c r="H54">
-        <v>50</v>
-      </c>
-      <c r="P54">
-        <v>12</v>
-      </c>
-      <c r="Q54">
-        <v>0.1</v>
-      </c>
-      <c r="R54">
-        <v>370</v>
-      </c>
-      <c r="S54">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E55">
-        <v>2.88</v>
-      </c>
-      <c r="F55">
-        <v>0.02</v>
-      </c>
-      <c r="G55">
-        <v>550</v>
-      </c>
-      <c r="H55">
-        <v>50</v>
-      </c>
-      <c r="P55">
-        <v>14.2</v>
-      </c>
-      <c r="Q55">
-        <v>0.1</v>
-      </c>
-      <c r="R55">
-        <v>460</v>
-      </c>
-      <c r="S55">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E56">
-        <v>5</v>
-      </c>
-      <c r="F56">
-        <v>0.02</v>
-      </c>
-      <c r="G56">
-        <v>430</v>
-      </c>
-      <c r="H56">
-        <v>50</v>
-      </c>
-      <c r="P56">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="Q56">
-        <v>0.1</v>
-      </c>
-      <c r="R56">
-        <v>620</v>
-      </c>
-      <c r="S56">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E57">
-        <v>5.76</v>
-      </c>
-      <c r="F57">
-        <v>0.02</v>
-      </c>
-      <c r="G57">
-        <v>390</v>
-      </c>
-      <c r="H57">
-        <v>50</v>
-      </c>
-      <c r="P57">
-        <v>20.2</v>
-      </c>
-      <c r="Q57">
-        <v>0.1</v>
-      </c>
-      <c r="R57">
-        <v>650</v>
-      </c>
-      <c r="S57">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E58">
-        <v>6.76</v>
-      </c>
-      <c r="F58">
-        <v>0.02</v>
-      </c>
-      <c r="G58">
-        <v>340</v>
-      </c>
-      <c r="H58">
-        <v>50</v>
-      </c>
-      <c r="P58">
-        <v>24</v>
-      </c>
-      <c r="Q58">
-        <v>0.1</v>
-      </c>
-      <c r="R58">
-        <v>800</v>
-      </c>
-      <c r="S58">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E59">
-        <v>8.64</v>
-      </c>
-      <c r="F59">
-        <v>0.02</v>
-      </c>
-      <c r="G59">
-        <v>250</v>
-      </c>
-      <c r="H59">
-        <v>50</v>
-      </c>
-      <c r="P59">
-        <v>35.5</v>
-      </c>
-      <c r="Q59">
-        <v>0.1</v>
-      </c>
-      <c r="R59">
-        <v>990</v>
-      </c>
-      <c r="S59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E60">
-        <v>12.4</v>
-      </c>
-      <c r="F60">
-        <v>0.02</v>
-      </c>
-      <c r="G60">
-        <v>120</v>
-      </c>
-      <c r="H60">
-        <v>30</v>
-      </c>
-      <c r="P60">
-        <v>48.1</v>
-      </c>
-      <c r="Q60">
-        <v>0.1</v>
-      </c>
-      <c r="R60">
-        <v>1100</v>
-      </c>
-      <c r="S60">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E61">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="F61">
-        <v>0.02</v>
-      </c>
-      <c r="G61">
-        <v>60</v>
-      </c>
-      <c r="H61">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E62">
-        <v>11</v>
-      </c>
-      <c r="F62">
-        <v>0.02</v>
-      </c>
-      <c r="G62">
-        <v>170</v>
-      </c>
-      <c r="H62">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -8379,296 +7132,1446 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD74ED2-D931-4801-AD69-F1E255EBBAAA}">
-  <dimension ref="B1:P14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B76A14-4B51-43F4-89A8-E24B71AF5230}">
+  <dimension ref="C1:S62"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="13" max="13" width="12.08984375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>0.27</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <v>490</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3">
+        <v>860</v>
+      </c>
+      <c r="O3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <v>0.7</v>
+      </c>
+      <c r="Q3">
+        <v>0.01</v>
+      </c>
+      <c r="R3">
+        <v>60</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>0.41</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>380</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="P4">
+        <v>0.74</v>
+      </c>
+      <c r="Q4">
+        <v>0.01</v>
+      </c>
+      <c r="R4">
+        <v>70</v>
+      </c>
+      <c r="S4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>0.33</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5">
+        <v>440</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="P5">
+        <v>0.79</v>
+      </c>
+      <c r="Q5">
+        <v>0.01</v>
+      </c>
+      <c r="R5">
+        <v>90</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>0.45</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <v>370</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="P6">
+        <v>0.91</v>
+      </c>
+      <c r="Q6">
+        <v>0.01</v>
+      </c>
+      <c r="R6">
+        <v>160</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
+        <v>310</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="P7">
+        <v>0.93</v>
+      </c>
+      <c r="Q7">
+        <v>0.01</v>
+      </c>
+      <c r="R7">
+        <v>170</v>
+      </c>
+      <c r="S7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>0.68</v>
+      </c>
+      <c r="F8">
+        <v>0.01</v>
+      </c>
+      <c r="G8">
+        <v>260</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="P8">
+        <v>0.98</v>
+      </c>
+      <c r="Q8">
+        <v>0.01</v>
+      </c>
+      <c r="R8">
+        <v>200</v>
+      </c>
+      <c r="S8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>0.78</v>
+      </c>
+      <c r="F9">
+        <v>0.01</v>
+      </c>
+      <c r="G9">
+        <v>240</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="P9">
+        <v>1.25</v>
+      </c>
+      <c r="Q9">
+        <v>0.01</v>
+      </c>
+      <c r="R9">
+        <v>350</v>
+      </c>
+      <c r="S9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>0.92</v>
+      </c>
+      <c r="F10">
+        <v>0.01</v>
+      </c>
+      <c r="G10">
+        <v>180</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="P10">
+        <v>1.07</v>
+      </c>
+      <c r="Q10">
+        <v>0.01</v>
+      </c>
+      <c r="R10">
+        <v>270</v>
+      </c>
+      <c r="S10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>1.03</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>130</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="P11">
+        <v>1.75</v>
+      </c>
+      <c r="Q11">
+        <v>0.01</v>
+      </c>
+      <c r="R11">
+        <v>550</v>
+      </c>
+      <c r="S11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>1.34</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="P12">
+        <v>2.4</v>
+      </c>
+      <c r="Q12">
+        <v>0.01</v>
+      </c>
+      <c r="R12">
+        <v>690</v>
+      </c>
+      <c r="S12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>0.7</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <v>250</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="P13">
+        <v>3.16</v>
+      </c>
+      <c r="Q13">
+        <v>0.01</v>
+      </c>
+      <c r="R13">
+        <v>770</v>
+      </c>
+      <c r="S13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F14">
+        <v>0.01</v>
+      </c>
+      <c r="G14">
+        <v>320</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="P14">
+        <v>4.01</v>
+      </c>
+      <c r="Q14">
+        <v>0.01</v>
+      </c>
+      <c r="R14">
+        <v>810</v>
+      </c>
+      <c r="S14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>0.47</v>
+      </c>
+      <c r="F15">
+        <v>0.01</v>
+      </c>
+      <c r="G15">
+        <v>390</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="P15">
+        <v>1.43</v>
+      </c>
+      <c r="Q15">
+        <v>0.01</v>
+      </c>
+      <c r="R15">
+        <v>400</v>
+      </c>
+      <c r="S15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" t="s">
+        <v>8</v>
+      </c>
+      <c r="S19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N20">
+        <v>930</v>
+      </c>
+      <c r="O20">
+        <v>50</v>
+      </c>
+      <c r="P20">
+        <v>1.81</v>
+      </c>
+      <c r="Q20">
+        <v>0.01</v>
+      </c>
+      <c r="R20">
+        <v>160</v>
+      </c>
+      <c r="S20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21">
+        <v>0.33</v>
+      </c>
+      <c r="F21">
+        <v>0.01</v>
+      </c>
+      <c r="G21">
+        <v>630</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="P21">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q21">
+        <v>0.01</v>
+      </c>
+      <c r="R21">
+        <v>300</v>
+      </c>
+      <c r="S21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>0.46</v>
+      </c>
+      <c r="F22">
+        <v>0.01</v>
+      </c>
+      <c r="G22">
+        <v>570</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="P22">
+        <v>2.56</v>
+      </c>
+      <c r="Q22">
+        <v>0.01</v>
+      </c>
+      <c r="R22">
+        <v>420</v>
+      </c>
+      <c r="S22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>0.6</v>
+      </c>
+      <c r="F23">
+        <v>0.01</v>
+      </c>
+      <c r="G23">
+        <v>520</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="P23">
+        <v>3.18</v>
+      </c>
+      <c r="Q23">
+        <v>0.01</v>
+      </c>
+      <c r="R23">
+        <v>520</v>
+      </c>
+      <c r="S23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>0.8</v>
+      </c>
+      <c r="F24">
+        <v>0.01</v>
+      </c>
+      <c r="G24">
+        <v>430</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="P24">
+        <v>3.62</v>
+      </c>
+      <c r="Q24">
+        <v>0.01</v>
+      </c>
+      <c r="R24">
+        <v>600</v>
+      </c>
+      <c r="S24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>1.01</v>
+      </c>
+      <c r="F25">
+        <v>0.01</v>
+      </c>
+      <c r="G25">
+        <v>380</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="P25">
+        <v>4.42</v>
+      </c>
+      <c r="Q25">
+        <v>0.01</v>
+      </c>
+      <c r="R25">
+        <v>680</v>
+      </c>
+      <c r="S25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>1.26</v>
+      </c>
+      <c r="F26">
+        <v>0.01</v>
+      </c>
+      <c r="G26">
+        <v>320</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="P26">
+        <v>5.28</v>
+      </c>
+      <c r="Q26">
+        <v>0.01</v>
+      </c>
+      <c r="R26">
+        <v>770</v>
+      </c>
+      <c r="S26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>1.5</v>
+      </c>
+      <c r="F27">
+        <v>0.01</v>
+      </c>
+      <c r="G27">
+        <v>240</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="P27">
+        <v>6.05</v>
+      </c>
+      <c r="Q27">
+        <v>0.01</v>
+      </c>
+      <c r="R27">
+        <v>870</v>
+      </c>
+      <c r="S27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>1.71</v>
+      </c>
+      <c r="F28">
+        <v>0.01</v>
+      </c>
+      <c r="G28">
+        <v>230</v>
+      </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="P28">
+        <v>7.18</v>
+      </c>
+      <c r="Q28">
+        <v>0.01</v>
+      </c>
+      <c r="R28">
+        <v>900</v>
+      </c>
+      <c r="S28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>1.91</v>
+      </c>
+      <c r="F29">
+        <v>0.01</v>
+      </c>
+      <c r="G29">
+        <v>190</v>
+      </c>
+      <c r="H29">
         <v>30</v>
       </c>
-      <c r="L1">
-        <v>2.5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1">
-        <v>0.99960000000000004</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1">
+      <c r="P29">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="Q29">
+        <v>0.01</v>
+      </c>
+      <c r="R29">
+        <v>750</v>
+      </c>
+      <c r="S29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>3.05</v>
+      </c>
+      <c r="F30">
+        <v>0.01</v>
+      </c>
+      <c r="G30">
+        <v>80</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>2.36</v>
+      </c>
+      <c r="F31">
+        <v>0.01</v>
+      </c>
+      <c r="G31">
+        <v>150</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="D32" s="2"/>
+      <c r="E32">
+        <v>670</v>
+      </c>
+      <c r="F32">
+        <v>0.01</v>
+      </c>
+      <c r="G32">
+        <v>480</v>
+      </c>
+      <c r="H32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" t="s">
+        <v>31</v>
+      </c>
+      <c r="P34" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35">
+        <v>1080</v>
+      </c>
+      <c r="O35">
+        <v>50</v>
+      </c>
+      <c r="P35">
+        <v>3.64</v>
+      </c>
+      <c r="Q35">
+        <v>0.02</v>
+      </c>
+      <c r="R35">
+        <v>90</v>
+      </c>
+      <c r="S35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>0.24</v>
+      </c>
+      <c r="F36">
+        <v>0.01</v>
+      </c>
+      <c r="G36">
+        <v>780</v>
+      </c>
+      <c r="H36">
+        <v>50</v>
+      </c>
+      <c r="P36">
+        <v>3.96</v>
+      </c>
+      <c r="Q36">
+        <v>0.02</v>
+      </c>
+      <c r="R36">
+        <v>130</v>
+      </c>
+      <c r="S36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>0.36</v>
+      </c>
+      <c r="F37">
+        <v>0.01</v>
+      </c>
+      <c r="G37">
+        <v>710</v>
+      </c>
+      <c r="H37">
+        <v>50</v>
+      </c>
+      <c r="P37">
+        <v>4.58</v>
+      </c>
+      <c r="Q37">
+        <v>0.02</v>
+      </c>
+      <c r="R37">
+        <v>220</v>
+      </c>
+      <c r="S37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>0.61</v>
+      </c>
+      <c r="F38">
+        <v>0.01</v>
+      </c>
+      <c r="G38">
+        <v>660</v>
+      </c>
+      <c r="H38">
+        <v>50</v>
+      </c>
+      <c r="P38">
+        <v>5.34</v>
+      </c>
+      <c r="Q38">
+        <v>0.02</v>
+      </c>
+      <c r="R38">
+        <v>320</v>
+      </c>
+      <c r="S38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>0.84</v>
+      </c>
+      <c r="F39">
+        <v>0.01</v>
+      </c>
+      <c r="G39">
+        <v>580</v>
+      </c>
+      <c r="H39">
+        <v>50</v>
+      </c>
+      <c r="P39">
+        <v>5.94</v>
+      </c>
+      <c r="Q39">
+        <v>0.02</v>
+      </c>
+      <c r="R39">
+        <v>380</v>
+      </c>
+      <c r="S39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>1.19</v>
+      </c>
+      <c r="F40">
+        <v>0.01</v>
+      </c>
+      <c r="G40">
+        <v>550</v>
+      </c>
+      <c r="H40">
+        <v>50</v>
+      </c>
+      <c r="P40">
+        <v>6.46</v>
+      </c>
+      <c r="Q40">
+        <v>0.02</v>
+      </c>
+      <c r="R40">
+        <v>440</v>
+      </c>
+      <c r="S40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>1.56</v>
+      </c>
+      <c r="F41">
+        <v>0.01</v>
+      </c>
+      <c r="G41">
+        <v>450</v>
+      </c>
+      <c r="H41">
+        <v>50</v>
+      </c>
+      <c r="P41">
+        <v>8.1</v>
+      </c>
+      <c r="Q41">
+        <v>0.02</v>
+      </c>
+      <c r="R41">
+        <v>600</v>
+      </c>
+      <c r="S41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>1.8</v>
+      </c>
+      <c r="F42">
+        <v>0.02</v>
+      </c>
+      <c r="G42">
+        <v>440</v>
+      </c>
+      <c r="H42">
+        <v>50</v>
+      </c>
+      <c r="P42">
+        <v>8.98</v>
+      </c>
+      <c r="Q42">
+        <v>0.02</v>
+      </c>
+      <c r="R42">
+        <v>650</v>
+      </c>
+      <c r="S42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <v>2.8</v>
+      </c>
+      <c r="F43">
+        <v>0.02</v>
+      </c>
+      <c r="G43">
+        <v>320</v>
+      </c>
+      <c r="H43">
+        <v>50</v>
+      </c>
+      <c r="P43">
+        <v>10.4</v>
+      </c>
+      <c r="Q43">
+        <v>0.02</v>
+      </c>
+      <c r="R43">
+        <v>740</v>
+      </c>
+      <c r="S43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <v>3.3</v>
+      </c>
+      <c r="F44">
+        <v>0.02</v>
+      </c>
+      <c r="G44">
+        <v>260</v>
+      </c>
+      <c r="H44">
+        <v>50</v>
+      </c>
+      <c r="P44">
+        <v>11.4</v>
+      </c>
+      <c r="Q44">
+        <v>0.04</v>
+      </c>
+      <c r="R44">
+        <v>800</v>
+      </c>
+      <c r="S44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <v>4.16</v>
+      </c>
+      <c r="F45">
+        <v>0.02</v>
+      </c>
+      <c r="G45">
+        <v>180</v>
+      </c>
+      <c r="H45">
+        <v>30</v>
+      </c>
+      <c r="P45">
+        <v>14.1</v>
+      </c>
+      <c r="Q45">
+        <v>0.04</v>
+      </c>
+      <c r="R45">
+        <v>880</v>
+      </c>
+      <c r="S45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>6.72</v>
+      </c>
+      <c r="F46">
+        <v>0.02</v>
+      </c>
+      <c r="G46">
+        <v>70</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="P46">
+        <v>22.2</v>
+      </c>
+      <c r="Q46">
+        <v>0.04</v>
+      </c>
+      <c r="R46">
+        <v>1000</v>
+      </c>
+      <c r="S46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>3.98</v>
+      </c>
+      <c r="F47">
+        <v>0.02</v>
+      </c>
+      <c r="G47">
+        <v>230</v>
+      </c>
+      <c r="H47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" t="s">
+        <v>45</v>
+      </c>
+      <c r="O50" t="s">
+        <v>31</v>
+      </c>
+      <c r="P50" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>31</v>
+      </c>
+      <c r="R50" t="s">
+        <v>8</v>
+      </c>
+      <c r="S50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51">
+        <v>0.88</v>
+      </c>
+      <c r="F51">
+        <v>0.02</v>
+      </c>
+      <c r="G51">
+        <v>710</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+      <c r="M51" t="s">
+        <v>43</v>
+      </c>
+      <c r="N51">
+        <v>1200</v>
+      </c>
+      <c r="O51">
+        <v>100</v>
+      </c>
+      <c r="P51">
+        <v>9.32</v>
+      </c>
+      <c r="Q51">
+        <v>0.04</v>
+      </c>
+      <c r="R51">
+        <v>150</v>
+      </c>
+      <c r="S51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>1.24</v>
+      </c>
+      <c r="F52">
+        <v>0.02</v>
+      </c>
+      <c r="G52">
+        <v>680</v>
+      </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+      <c r="P52">
+        <v>10.7</v>
+      </c>
+      <c r="Q52">
+        <v>0.04</v>
+      </c>
+      <c r="R52">
+        <v>240</v>
+      </c>
+      <c r="S52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>1.52</v>
+      </c>
+      <c r="F53">
+        <v>0.02</v>
+      </c>
+      <c r="G53">
+        <v>650</v>
+      </c>
+      <c r="H53">
+        <v>50</v>
+      </c>
+      <c r="P53">
+        <v>16.8</v>
+      </c>
+      <c r="Q53">
+        <v>0.1</v>
+      </c>
+      <c r="R53">
+        <v>580</v>
+      </c>
+      <c r="S53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>2.08</v>
+      </c>
+      <c r="F54">
+        <v>0.02</v>
+      </c>
+      <c r="G54">
+        <v>600</v>
+      </c>
+      <c r="H54">
+        <v>50</v>
+      </c>
+      <c r="P54">
+        <v>12</v>
+      </c>
+      <c r="Q54">
+        <v>0.1</v>
+      </c>
+      <c r="R54">
+        <v>370</v>
+      </c>
+      <c r="S54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>2.88</v>
+      </c>
+      <c r="F55">
+        <v>0.02</v>
+      </c>
+      <c r="G55">
+        <v>550</v>
+      </c>
+      <c r="H55">
+        <v>50</v>
+      </c>
+      <c r="P55">
+        <v>14.2</v>
+      </c>
+      <c r="Q55">
+        <v>0.1</v>
+      </c>
+      <c r="R55">
+        <v>460</v>
+      </c>
+      <c r="S55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E56">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="L2">
-        <v>0.01</v>
-      </c>
-      <c r="N2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F56">
+        <v>0.02</v>
+      </c>
+      <c r="G56">
+        <v>430</v>
+      </c>
+      <c r="H56">
+        <v>50</v>
+      </c>
+      <c r="P56">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="Q56">
+        <v>0.1</v>
+      </c>
+      <c r="R56">
+        <v>620</v>
+      </c>
+      <c r="S56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>5.76</v>
+      </c>
+      <c r="F57">
+        <v>0.02</v>
+      </c>
+      <c r="G57">
+        <v>390</v>
+      </c>
+      <c r="H57">
+        <v>50</v>
+      </c>
+      <c r="P57">
+        <v>20.2</v>
+      </c>
+      <c r="Q57">
+        <v>0.1</v>
+      </c>
+      <c r="R57">
+        <v>650</v>
+      </c>
+      <c r="S57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>6.76</v>
+      </c>
+      <c r="F58">
+        <v>0.02</v>
+      </c>
+      <c r="G58">
+        <v>340</v>
+      </c>
+      <c r="H58">
+        <v>50</v>
+      </c>
+      <c r="P58">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0.96831999999999996</v>
-      </c>
-      <c r="E4">
-        <v>1.7840000000000002E-2</v>
-      </c>
-      <c r="F4">
-        <f>1/D4</f>
-        <v>1.0327164573694647</v>
-      </c>
-      <c r="G4">
-        <f>F4*SQRT((E4/D4)^2)</f>
-        <v>1.9026418538779795E-2</v>
-      </c>
-      <c r="H4">
-        <v>0.60584000000000005</v>
-      </c>
-      <c r="I4">
-        <v>7.1980000000000002E-2</v>
-      </c>
-      <c r="K4">
-        <f>$P$1</f>
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <f>$P$2</f>
-        <v>0.01</v>
-      </c>
-      <c r="M4">
-        <f>$N$1/K4</f>
-        <v>0.19992000000000001</v>
-      </c>
-      <c r="N4">
-        <f>M4*SQRT(($N$2/$N$1)^2+(L4/K4)^2)</f>
-        <v>4.1215534158858119E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2.0680000000000001</v>
-      </c>
-      <c r="E5">
-        <v>6.3E-2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F7" si="0">1/D5</f>
-        <v>0.48355899419729204</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G7" si="1">F5*SQRT((E5/D5)^2)</f>
-        <v>1.4731245954753093E-2</v>
-      </c>
-      <c r="H5">
-        <v>1.3427</v>
-      </c>
-      <c r="I5">
-        <v>0.1176</v>
-      </c>
-      <c r="K5">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <f>SQRT($P$2^2+$P$2^2)</f>
-        <v>1.4142135623730951E-2</v>
-      </c>
-      <c r="M5">
-        <f>2.5*M4/K5</f>
-        <v>9.9960000000000007E-2</v>
-      </c>
-      <c r="N5">
-        <f>M5*SQRT((L5/K5)^2+($L$2/$L$1)^2+(N4/M4)^2)</f>
-        <v>5.3129656953532093E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>4.8009000000000004</v>
-      </c>
-      <c r="E6">
-        <v>0.1193</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.20829427815617904</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>5.17601020309362E-3</v>
-      </c>
-      <c r="H6">
-        <v>2.8862000000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.20680000000000001</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <f>SQRT($P$2^2+$P$2^2)</f>
-        <v>1.4142135623730951E-2</v>
-      </c>
-      <c r="M6">
-        <f>2.5*M5/K6</f>
-        <v>4.9980000000000004E-2</v>
-      </c>
-      <c r="N6">
-        <f>M6*SQRT((L6/K6)^2+($L$2/$L$1)^2+(N5/M5)^2)</f>
-        <v>3.6127693089927569E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>11.385999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>8.7827156156683656E-2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>3.0160212592010641E-3</v>
-      </c>
-      <c r="H7">
-        <v>7.0476000000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.51680000000000004</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <f>SQRT($P$2^2+$P$2^2)</f>
-        <v>1.4142135623730951E-2</v>
-      </c>
-      <c r="M7">
-        <f>2.5*M6/K7</f>
-        <v>2.4990000000000002E-2</v>
-      </c>
-      <c r="N7">
-        <f>M7*SQRT((L7/K7)^2+($L$2/$L$1)^2+(N6/M6)^2)</f>
-        <v>2.1821608006744142E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="M9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="I11">
-        <v>0.19992000000000001</v>
-      </c>
-      <c r="J11">
-        <v>4.1215534158858119E-4</v>
-      </c>
-      <c r="K11">
-        <v>1.0327164573694647</v>
-      </c>
-      <c r="L11">
-        <v>1.9026418538779795E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="I12">
-        <v>9.9960000000000007E-2</v>
-      </c>
-      <c r="J12">
-        <v>5.3129656953532093E-4</v>
-      </c>
-      <c r="K12">
-        <v>0.48355899419729204</v>
-      </c>
-      <c r="L12">
-        <v>1.4731245954753093E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="I13">
-        <v>4.9980000000000004E-2</v>
-      </c>
-      <c r="J13">
-        <v>3.6127693089927569E-4</v>
-      </c>
-      <c r="K13">
-        <v>0.20829427815617904</v>
-      </c>
-      <c r="L13">
-        <v>5.17601020309362E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="I14">
-        <v>2.4990000000000002E-2</v>
-      </c>
-      <c r="J14">
-        <v>2.1821608006744142E-4</v>
-      </c>
-      <c r="K14">
-        <v>8.7827156156683656E-2</v>
-      </c>
-      <c r="L14">
-        <v>3.0160212592010641E-3</v>
+      <c r="Q58">
+        <v>0.1</v>
+      </c>
+      <c r="R58">
+        <v>800</v>
+      </c>
+      <c r="S58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>8.64</v>
+      </c>
+      <c r="F59">
+        <v>0.02</v>
+      </c>
+      <c r="G59">
+        <v>250</v>
+      </c>
+      <c r="H59">
+        <v>50</v>
+      </c>
+      <c r="P59">
+        <v>35.5</v>
+      </c>
+      <c r="Q59">
+        <v>0.1</v>
+      </c>
+      <c r="R59">
+        <v>990</v>
+      </c>
+      <c r="S59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>12.4</v>
+      </c>
+      <c r="F60">
+        <v>0.02</v>
+      </c>
+      <c r="G60">
+        <v>120</v>
+      </c>
+      <c r="H60">
+        <v>30</v>
+      </c>
+      <c r="P60">
+        <v>48.1</v>
+      </c>
+      <c r="Q60">
+        <v>0.1</v>
+      </c>
+      <c r="R60">
+        <v>1100</v>
+      </c>
+      <c r="S60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F61">
+        <v>0.02</v>
+      </c>
+      <c r="G61">
+        <v>60</v>
+      </c>
+      <c r="H61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>11</v>
+      </c>
+      <c r="F62">
+        <v>0.02</v>
+      </c>
+      <c r="G62">
+        <v>170</v>
+      </c>
+      <c r="H62">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -8677,11 +8580,254 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD74ED2-D931-4801-AD69-F1E255EBBAAA}">
+  <dimension ref="B1:P9"/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="12.08984375" customWidth="1"/>
+    <col min="14" max="14" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1">
+        <v>2.5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <v>0.01</v>
+      </c>
+      <c r="N2">
+        <v>1E-4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.96831999999999996</v>
+      </c>
+      <c r="E4">
+        <v>1.7840000000000002E-2</v>
+      </c>
+      <c r="F4">
+        <f>1/D4</f>
+        <v>1.0327164573694647</v>
+      </c>
+      <c r="G4">
+        <f>F4*SQRT((E4/D4)^2)</f>
+        <v>1.9026418538779795E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.60584000000000005</v>
+      </c>
+      <c r="I4">
+        <v>7.1980000000000002E-2</v>
+      </c>
+      <c r="K4">
+        <f>$P$1</f>
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <f>$P$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="M4">
+        <f>$N$1/K4</f>
+        <v>0.19992000000000001</v>
+      </c>
+      <c r="N4">
+        <f>M4*SQRT(($N$2/$N$1)^2+(L4/K4)^2)</f>
+        <v>4.0033988759552799E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="E5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F7" si="0">1/D5</f>
+        <v>0.48355899419729204</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G7" si="1">F5*SQRT((E5/D5)^2)</f>
+        <v>1.4731245954753093E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.3427</v>
+      </c>
+      <c r="I5">
+        <v>0.1176</v>
+      </c>
+      <c r="K5">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <f>SQRT($P$2^2+$P$2^2)</f>
+        <v>1.4142135623730951E-2</v>
+      </c>
+      <c r="M5">
+        <f>2.5*M4/K5</f>
+        <v>9.9960000000000007E-2</v>
+      </c>
+      <c r="N5">
+        <f>M5*SQRT((L5/K5)^2+($L$2/$L$1)^2+(N4/M4)^2)</f>
+        <v>5.2903312259252732E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4.8009000000000004</v>
+      </c>
+      <c r="E6">
+        <v>0.1193</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.20829427815617904</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>5.17601020309362E-3</v>
+      </c>
+      <c r="H6">
+        <v>2.8862000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.20680000000000001</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <f>SQRT($P$2^2+$P$2^2)</f>
+        <v>1.4142135623730951E-2</v>
+      </c>
+      <c r="M6">
+        <f>2.5*M5/K6</f>
+        <v>4.9980000000000004E-2</v>
+      </c>
+      <c r="N6">
+        <f>M6*SQRT((L6/K6)^2+($L$2/$L$1)^2+(N5/M5)^2)</f>
+        <v>3.6044558646209003E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>11.385999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>8.7827156156683656E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>3.0160212592010641E-3</v>
+      </c>
+      <c r="H7">
+        <v>7.0476000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.51680000000000004</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <f>SQRT($P$2^2+$P$2^2)</f>
+        <v>1.4142135623730951E-2</v>
+      </c>
+      <c r="M7">
+        <f>2.5*M6/K7</f>
+        <v>2.4990000000000002E-2</v>
+      </c>
+      <c r="N7">
+        <f>M7*SQRT((L7/K7)^2+($L$2/$L$1)^2+(N6/M6)^2)</f>
+        <v>2.1787211294702224E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0606C6-D98F-4C4D-8AAB-CCB3EA16D9C4}">
   <dimension ref="D2:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:T15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8696,34 +8842,34 @@
     </row>
     <row r="3" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
         <v>4</v>
       </c>
       <c r="Q3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="4:20" x14ac:dyDescent="0.35">
@@ -8740,7 +8886,7 @@
         <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O4">
         <v>1050</v>
@@ -9032,4 +9178,1437 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D740490-5A62-46E5-A125-C05AB1514F4D}">
+  <dimension ref="D2:T48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>0.65</v>
+      </c>
+      <c r="G4">
+        <v>0.03</v>
+      </c>
+      <c r="H4">
+        <v>550</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4">
+        <v>50</v>
+      </c>
+      <c r="R4">
+        <v>0.02</v>
+      </c>
+      <c r="T4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>0.32</v>
+      </c>
+      <c r="G5">
+        <v>0.03</v>
+      </c>
+      <c r="H5">
+        <v>600</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="Q5">
+        <v>1.54</v>
+      </c>
+      <c r="R5">
+        <v>0.02</v>
+      </c>
+      <c r="S5">
+        <v>140</v>
+      </c>
+      <c r="T5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>0.82</v>
+      </c>
+      <c r="G6">
+        <v>0.03</v>
+      </c>
+      <c r="H6">
+        <v>480</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="Q6">
+        <v>2.1</v>
+      </c>
+      <c r="R6">
+        <v>0.02</v>
+      </c>
+      <c r="S6">
+        <v>310</v>
+      </c>
+      <c r="T6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>1.07</v>
+      </c>
+      <c r="G7">
+        <v>0.03</v>
+      </c>
+      <c r="H7">
+        <v>400</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="Q7">
+        <v>2.5</v>
+      </c>
+      <c r="R7">
+        <v>0.02</v>
+      </c>
+      <c r="S7">
+        <v>460</v>
+      </c>
+      <c r="T7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>1.36</v>
+      </c>
+      <c r="G8">
+        <v>0.03</v>
+      </c>
+      <c r="H8">
+        <v>310</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="Q8">
+        <v>2.88</v>
+      </c>
+      <c r="R8">
+        <v>0.02</v>
+      </c>
+      <c r="S8">
+        <v>510</v>
+      </c>
+      <c r="T8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>1.72</v>
+      </c>
+      <c r="G9">
+        <v>0.03</v>
+      </c>
+      <c r="H9">
+        <v>220</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>3.48</v>
+      </c>
+      <c r="R9">
+        <v>0.02</v>
+      </c>
+      <c r="S9">
+        <v>620</v>
+      </c>
+      <c r="T9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>2.73</v>
+      </c>
+      <c r="G10">
+        <v>0.03</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+      <c r="Q10">
+        <v>4.04</v>
+      </c>
+      <c r="R10">
+        <v>0.02</v>
+      </c>
+      <c r="S10">
+        <v>760</v>
+      </c>
+      <c r="T10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>2.14</v>
+      </c>
+      <c r="G11">
+        <v>0.03</v>
+      </c>
+      <c r="H11">
+        <v>180</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="Q11">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="R11">
+        <v>0.02</v>
+      </c>
+      <c r="S11">
+        <v>840</v>
+      </c>
+      <c r="T11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>0.44</v>
+      </c>
+      <c r="G12">
+        <v>0.03</v>
+      </c>
+      <c r="H12">
+        <v>590</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+      <c r="Q12">
+        <v>6.02</v>
+      </c>
+      <c r="R12">
+        <v>0.02</v>
+      </c>
+      <c r="S12">
+        <v>840</v>
+      </c>
+      <c r="T12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>0.31</v>
+      </c>
+      <c r="G13">
+        <v>0.03</v>
+      </c>
+      <c r="H13">
+        <v>650</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="Q13">
+        <v>1.8</v>
+      </c>
+      <c r="R13">
+        <v>0.02</v>
+      </c>
+      <c r="S13">
+        <v>180</v>
+      </c>
+      <c r="T13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>0.64</v>
+      </c>
+      <c r="G14">
+        <v>0.03</v>
+      </c>
+      <c r="H14">
+        <v>570</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+      <c r="Q14">
+        <v>1.92</v>
+      </c>
+      <c r="R14">
+        <v>0.02</v>
+      </c>
+      <c r="S14">
+        <v>220</v>
+      </c>
+      <c r="T14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>1.04</v>
+      </c>
+      <c r="G18">
+        <v>0.03</v>
+      </c>
+      <c r="H18">
+        <v>600</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="Q18">
+        <v>3.86</v>
+      </c>
+      <c r="R18">
+        <v>0.03</v>
+      </c>
+      <c r="S18">
+        <v>130</v>
+      </c>
+      <c r="T18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>1.28</v>
+      </c>
+      <c r="G19">
+        <v>0.03</v>
+      </c>
+      <c r="H19">
+        <v>550</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="Q19">
+        <v>4.2</v>
+      </c>
+      <c r="R19">
+        <v>0.03</v>
+      </c>
+      <c r="S19">
+        <v>170</v>
+      </c>
+      <c r="T19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>1.7</v>
+      </c>
+      <c r="G20">
+        <v>0.03</v>
+      </c>
+      <c r="H20">
+        <v>490</v>
+      </c>
+      <c r="I20">
+        <v>50</v>
+      </c>
+      <c r="Q20">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="R20">
+        <v>0.03</v>
+      </c>
+      <c r="S20">
+        <v>190</v>
+      </c>
+      <c r="T20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>2.48</v>
+      </c>
+      <c r="G21">
+        <v>0.03</v>
+      </c>
+      <c r="H21">
+        <v>370</v>
+      </c>
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="Q21">
+        <v>4.62</v>
+      </c>
+      <c r="R21">
+        <v>0.03</v>
+      </c>
+      <c r="S21">
+        <v>240</v>
+      </c>
+      <c r="T21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>3.22</v>
+      </c>
+      <c r="G22">
+        <v>0.03</v>
+      </c>
+      <c r="H22">
+        <v>300</v>
+      </c>
+      <c r="I22">
+        <v>50</v>
+      </c>
+      <c r="Q22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R22">
+        <v>0.03</v>
+      </c>
+      <c r="S22">
+        <v>290</v>
+      </c>
+      <c r="T22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G23">
+        <v>0.03</v>
+      </c>
+      <c r="H23">
+        <v>180</v>
+      </c>
+      <c r="I23">
+        <v>50</v>
+      </c>
+      <c r="Q23">
+        <v>5.82</v>
+      </c>
+      <c r="R23">
+        <v>0.03</v>
+      </c>
+      <c r="S23">
+        <v>390</v>
+      </c>
+      <c r="T23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>6.22</v>
+      </c>
+      <c r="G24">
+        <v>0.03</v>
+      </c>
+      <c r="H24">
+        <v>90</v>
+      </c>
+      <c r="I24">
+        <v>30</v>
+      </c>
+      <c r="Q24">
+        <v>6.48</v>
+      </c>
+      <c r="R24">
+        <v>0.03</v>
+      </c>
+      <c r="S24">
+        <v>460</v>
+      </c>
+      <c r="T24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>8.32</v>
+      </c>
+      <c r="G25">
+        <v>0.03</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>30</v>
+      </c>
+      <c r="Q25">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R25">
+        <v>0.03</v>
+      </c>
+      <c r="S25">
+        <v>620</v>
+      </c>
+      <c r="T25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <v>4.96</v>
+      </c>
+      <c r="G26">
+        <v>0.03</v>
+      </c>
+      <c r="H26">
+        <v>150</v>
+      </c>
+      <c r="I26">
+        <v>50</v>
+      </c>
+      <c r="Q26">
+        <v>9.06</v>
+      </c>
+      <c r="R26">
+        <v>0.05</v>
+      </c>
+      <c r="S26">
+        <v>650</v>
+      </c>
+      <c r="T26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>3.32</v>
+      </c>
+      <c r="G27">
+        <v>0.03</v>
+      </c>
+      <c r="H27">
+        <v>280</v>
+      </c>
+      <c r="I27">
+        <v>50</v>
+      </c>
+      <c r="Q27">
+        <v>11.4</v>
+      </c>
+      <c r="R27">
+        <v>0.05</v>
+      </c>
+      <c r="S27">
+        <v>770</v>
+      </c>
+      <c r="T27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="Q28">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="R28">
+        <v>0.05</v>
+      </c>
+      <c r="S28">
+        <v>940</v>
+      </c>
+      <c r="T28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G31">
+        <v>0.03</v>
+      </c>
+      <c r="H31">
+        <v>250</v>
+      </c>
+      <c r="I31">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>0.97</v>
+      </c>
+      <c r="L31">
+        <v>0.02</v>
+      </c>
+      <c r="M31">
+        <v>520</v>
+      </c>
+      <c r="N31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>4.16</v>
+      </c>
+      <c r="G32">
+        <v>0.03</v>
+      </c>
+      <c r="H32">
+        <v>170</v>
+      </c>
+      <c r="I32">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>1.67</v>
+      </c>
+      <c r="L32">
+        <v>0.02</v>
+      </c>
+      <c r="M32">
+        <v>420</v>
+      </c>
+      <c r="N32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>3.68</v>
+      </c>
+      <c r="G33">
+        <v>0.03</v>
+      </c>
+      <c r="H33">
+        <v>110</v>
+      </c>
+      <c r="I33">
+        <v>50</v>
+      </c>
+      <c r="K33">
+        <v>2.09</v>
+      </c>
+      <c r="L33">
+        <v>0.02</v>
+      </c>
+      <c r="M33">
+        <v>310</v>
+      </c>
+      <c r="N33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G34">
+        <v>0.03</v>
+      </c>
+      <c r="H34">
+        <v>240</v>
+      </c>
+      <c r="I34">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>3.99</v>
+      </c>
+      <c r="L34">
+        <v>0.02</v>
+      </c>
+      <c r="M34">
+        <v>160</v>
+      </c>
+      <c r="N34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>5.8</v>
+      </c>
+      <c r="G35">
+        <v>0.03</v>
+      </c>
+      <c r="H35">
+        <v>350</v>
+      </c>
+      <c r="I35">
+        <v>50</v>
+      </c>
+      <c r="K35">
+        <v>3.16</v>
+      </c>
+      <c r="L35">
+        <v>0.02</v>
+      </c>
+      <c r="M35">
+        <v>230</v>
+      </c>
+      <c r="N35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="G36">
+        <v>0.03</v>
+      </c>
+      <c r="H36">
+        <v>550</v>
+      </c>
+      <c r="I36">
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <v>2.16</v>
+      </c>
+      <c r="L36">
+        <v>0.02</v>
+      </c>
+      <c r="M36">
+        <v>290</v>
+      </c>
+      <c r="N36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="G37">
+        <v>0.03</v>
+      </c>
+      <c r="H37">
+        <v>630</v>
+      </c>
+      <c r="I37">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>0.71</v>
+      </c>
+      <c r="L37">
+        <v>0.02</v>
+      </c>
+      <c r="M37">
+        <v>490</v>
+      </c>
+      <c r="N37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>10.48</v>
+      </c>
+      <c r="G38">
+        <v>0.03</v>
+      </c>
+      <c r="H38">
+        <v>680</v>
+      </c>
+      <c r="I38">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>1.36</v>
+      </c>
+      <c r="L38">
+        <v>0.02</v>
+      </c>
+      <c r="M38">
+        <v>390</v>
+      </c>
+      <c r="N38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <v>11.4</v>
+      </c>
+      <c r="G39">
+        <v>0.03</v>
+      </c>
+      <c r="H39">
+        <v>730</v>
+      </c>
+      <c r="I39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <v>7.32</v>
+      </c>
+      <c r="G40">
+        <v>0.03</v>
+      </c>
+      <c r="H40">
+        <v>510</v>
+      </c>
+      <c r="I40">
+        <v>50</v>
+      </c>
+      <c r="K40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <v>6.44</v>
+      </c>
+      <c r="G41">
+        <v>0.03</v>
+      </c>
+      <c r="H41">
+        <v>440</v>
+      </c>
+      <c r="I41">
+        <v>50</v>
+      </c>
+      <c r="K41">
+        <v>0.78</v>
+      </c>
+      <c r="L41">
+        <v>0.03</v>
+      </c>
+      <c r="M41">
+        <v>520</v>
+      </c>
+      <c r="N41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <v>5.88</v>
+      </c>
+      <c r="G42">
+        <v>0.03</v>
+      </c>
+      <c r="H42">
+        <v>380</v>
+      </c>
+      <c r="I42">
+        <v>50</v>
+      </c>
+      <c r="K42">
+        <v>1.24</v>
+      </c>
+      <c r="L42">
+        <v>0.03</v>
+      </c>
+      <c r="M42">
+        <v>400</v>
+      </c>
+      <c r="N42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="K43">
+        <v>1.64</v>
+      </c>
+      <c r="L43">
+        <v>0.03</v>
+      </c>
+      <c r="M43">
+        <v>340</v>
+      </c>
+      <c r="N43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="K44">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="L44">
+        <v>0.03</v>
+      </c>
+      <c r="M44">
+        <v>290</v>
+      </c>
+      <c r="N44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="K45">
+        <v>3.57</v>
+      </c>
+      <c r="L45">
+        <v>0.03</v>
+      </c>
+      <c r="M45">
+        <v>160</v>
+      </c>
+      <c r="N45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="K46">
+        <v>5.15</v>
+      </c>
+      <c r="L46">
+        <v>0.03</v>
+      </c>
+      <c r="M46">
+        <v>100</v>
+      </c>
+      <c r="N46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="K47">
+        <v>0.83</v>
+      </c>
+      <c r="L47">
+        <v>0.03</v>
+      </c>
+      <c r="M47">
+        <v>480</v>
+      </c>
+      <c r="N47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="K48">
+        <v>1.4</v>
+      </c>
+      <c r="L48">
+        <v>0.03</v>
+      </c>
+      <c r="M48">
+        <v>380</v>
+      </c>
+      <c r="N48">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B6496C-A28B-4CA5-92E8-DE51BB17FF1B}">
+  <dimension ref="C2:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <f>1.256637*10^-6</f>
+        <v>1.2566369999999999E-6</v>
+      </c>
+      <c r="G5">
+        <f>1/15*D5^2*D6^2*D7/D8/D9</f>
+        <v>1.8625699555686962E+21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5">
+        <v>5.3</v>
+      </c>
+      <c r="K5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <f>2.675222005*10^8</f>
+        <v>267522200.50000003</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6">
+        <f>J7/G5</f>
+        <v>4.6154508045713703E-22</v>
+      </c>
+      <c r="H6">
+        <f>G6*SQRT((K7/J7)^2+(0/G5)^2)</f>
+        <v>8.7083977444742848E-24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6">
+        <f>J5/(1000000/162.2)</f>
+        <v>8.5965999999999994E-4</v>
+      </c>
+      <c r="K6">
+        <f>K5/(1000000/162.2)</f>
+        <v>1.6220000000000001E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>1E-3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SQRT(G6)</f>
+        <v>2.1483600267579387E-11</v>
+      </c>
+      <c r="H7" s="2">
+        <f>0.5*G6^(-0.5)*H6</f>
+        <v>2.0267547422244706E-13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7">
+        <f>J6*1000</f>
+        <v>0.85965999999999998</v>
+      </c>
+      <c r="K7">
+        <f>K6*1000</f>
+        <v>1.6220000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <f>1.3806*10^-23</f>
+        <v>1.3806000000000002E-23</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <f>4*10^-6</f>
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E14">
+        <f>0.5*10^-6</f>
+        <v>4.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <f>(8*PI()/D14/D6)</f>
+        <v>2.3486593992708978E-2</v>
+      </c>
+      <c r="E15">
+        <f>D15*SQRT((E14/D14)^2)</f>
+        <v>2.9358242490886222E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E20">
+        <v>1240</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20">
+        <f>0.127*10^-3</f>
+        <v>1.27E-4</v>
+      </c>
+      <c r="J20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E21">
+        <v>1010</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21">
+        <f>1/D6/I20</f>
+        <v>2.9433130160094868E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E22">
+        <v>840</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E23">
+        <v>870</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E24">
+        <v>800</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E25">
+        <v>690</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E26">
+        <v>490</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E27">
+        <v>340</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E28">
+        <v>170</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>0.34</v>
+      </c>
+      <c r="D30">
+        <v>0.02</v>
+      </c>
+      <c r="E30">
+        <v>60</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>0.51</v>
+      </c>
+      <c r="D31">
+        <v>0.02</v>
+      </c>
+      <c r="E31">
+        <v>40</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <v>0.73</v>
+      </c>
+      <c r="D32">
+        <v>0.02</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Lab1_NuclearMagneticResonance/dataSpreadsheets.xlsx
+++ b/Lab1_NuclearMagneticResonance/dataSpreadsheets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Programming Stuffs\GitHub Saved\phy327Labs\Lab1_NuclearMagneticResonance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427ACE1F-7BFB-4714-9FA6-485DD4EC65B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB69ED35-62D4-4A26-8C37-4DD3301A36C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{9A383C69-FF3A-4AD6-B826-3952C1112033}"/>
   </bookViews>
@@ -8583,8 +8583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD74ED2-D931-4801-AD69-F1E255EBBAAA}">
   <dimension ref="B1:P9"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="B1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8826,8 +8826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0606C6-D98F-4C4D-8AAB-CCB3EA16D9C4}">
   <dimension ref="D2:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9184,8 +9184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D740490-5A62-46E5-A125-C05AB1514F4D}">
   <dimension ref="D2:T48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10221,8 +10221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B6496C-A28B-4CA5-92E8-DE51BB17FF1B}">
   <dimension ref="C2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
